--- a/ministrybooks/search_terms.xlsx
+++ b/ministrybooks/search_terms.xlsx
@@ -368,135 +368,1452 @@
     <t xml:space="preserve">Bullinger</t>
   </si>
   <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busenbaum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. S. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadman</t>
+  </si>
+  <si>
     <t xml:space="preserve">John</t>
   </si>
   <si>
+    <t xml:space="preserve">Calvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardinal Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carruthers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherine of Siena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chafer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamberlain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L. Wilbur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilbur Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Chapman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note for Tino: search also for "C. Chapman"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesterton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysostom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clairvaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clement of Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clement of Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conybeare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cormier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cranmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cronin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crosby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cummings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyril of Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyril &amp; bishop of Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note for Tino: search also for "bishop of Alexandria"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyril of Jerusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyril &amp;! lucar &amp;! bishop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damascus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damiani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danneels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James G. Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyndham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delitzsch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dioscorus of Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donaldson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Arthur Conan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absalom Backus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eckhart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Baker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elliott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellicott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epiphanius of Salamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desiderius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eusebius of Caesarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eutychius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Damien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fausset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicitas of Rome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavian of Constantinople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaebelein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Lloyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gordon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F. W. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory of Nazianzus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory of Nyssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory the Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregory XIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greswell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony Norris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neill Q.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Payson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harverson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frances Ridley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havergal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theodore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herzl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilary of Poitiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hildegard of Bingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustine of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hislop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honorius III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Saul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Leonhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignatius of Antioch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignatius of Loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innocent III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innocent IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irenaeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaffray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerome of Stridon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Chrysostom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John the Cross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josephus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoniram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Martyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Friedrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kempis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kierkegaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Peter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laotze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. C. H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo XIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesse Penn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M'Kendrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Gresham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackintosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McDonough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James </t>
+  </si>
+  <si>
+    <t xml:space="preserve">McGranahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F. B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mileto of Sardis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moffatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moorehead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moorehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Campbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handley C. G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eberhard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novatian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedict of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nursia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John S. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliphant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ormsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prudence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn-Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perpetua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pius IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pius IX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pius X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pius XII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polycarp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Travers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesse Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praxeas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qurrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rimmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubinstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutherford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabellius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Oswald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwenckfeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyrus I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scofield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Duns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. B. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Bennet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah Whitall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Pearsall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smyth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socrates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sokolom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solzhenitsyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philipp Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sproul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurgeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Dominic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen's Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. B. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustus H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Barclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tauler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa of Avila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertullian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theophilus of Antioch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tischendorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toplady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tozer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S .P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tregelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trumbull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyndale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Solomon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kallistos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wescott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wesley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weymouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitefield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilberforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilkinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Dick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wordsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wuest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycliffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolaus von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinzendorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwingli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiesinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yang-ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin-Sparks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berry's</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bunyan</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busenbaum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Bush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. S. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardinal Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carruthers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catherine of Siena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chafer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamberlain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L. Wilbur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilbur Chapman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Chapman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note for Tino: search also for "C. Chapman"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesterton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrysostom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernard of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clairvaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clement of Alexandria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clement of Rome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confucius</t>
   </si>
   <si>
-    <t xml:space="preserve">William John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conybeare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cormier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Charles E.</t>
   </si>
   <si>
@@ -515,1333 +1832,16 @@
     <t xml:space="preserve">Note for Tino: search also for Mrs. Cowman</t>
   </si>
   <si>
-    <t xml:space="preserve">Cowper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cranmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cronin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crosby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cutting</t>
   </si>
   <si>
     <t xml:space="preserve">George Cutting</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyril of Alexandria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyril the bishop of Alexandria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note for Tino: search also for "bishop of Alexandria"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyril of Jerusalem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyril &amp;! lucar &amp;! bishop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damascus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damiani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danneels </t>
-  </si>
-  <si>
     <t xml:space="preserve">John Nelson</t>
   </si>
   <si>
     <t xml:space="preserve">Darby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dass </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James G. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James G. Deck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyndham </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delitzsch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioscorus of Alexandria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donaldson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Arthur Conan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absalom Backus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eckhart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Baker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edwards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elliott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellicott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epiphanius of Salamis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desiderius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eusebius of Caesarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eutychius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father Damien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fausset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicitas of Rome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenelon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavian of Constantinople</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forrest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaebelein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Lloyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gladstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederick Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. J. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gordon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Govett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F. W. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory of Nazianzus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory of Nyssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory the Great</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregory XIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greswell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neill Q.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Payson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harverson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frances Ridley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havergal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theodore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilary of Poitiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hildegard of Bingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augustine of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hislop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honorius III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Saul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes Leonhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignatius of Antioch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignatius of Loyola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innocent III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innocent IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irenaeus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaffray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerome of Stridon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Chrysostom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John the Cross</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josephus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adoniram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Martyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl Friedrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kempis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kierkegaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kittel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Peter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laotze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. C. H. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo XIII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesse Penn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livingstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M'Kendrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Gresham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackintosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mateer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McDonough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James </t>
-  </si>
-  <si>
-    <t xml:space="preserve">McGranahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mencius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F. B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mileto of Sardis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moffatt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Henry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moorehead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moorehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Campbell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morgan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handley C. G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. F. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moulton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eberhard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nestle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nestorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newberry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novatian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benedict of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John S. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliphant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ormsby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prudence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoebe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blaise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pascal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pember</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penn-Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perpetua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pius IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pius IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pius X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pius XII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfred </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polycarp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Travers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesse Brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praxeas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qurrah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matteo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rimmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubinstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutherford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabellius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Oswald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. H. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sayce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorothy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmoller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaspar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwenckfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyrus I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scofield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Duns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scotus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. B. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simpson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Bennet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hannah Whitall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oswald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pearson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Pearsall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smyth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socrates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sokolom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solzhenitsyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philipp Jakob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spener</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sproul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurgeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Denis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Dominic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen's Greek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. B. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augustus H. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Barclay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tauler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hudson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa of Avila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertullian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theophilus of Antioch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griffith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tischendorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augustus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toplady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tozer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S .P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tregelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trumbull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyndale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. H. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. E. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwegian scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abraham Solomon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Williston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kallistos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wescott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wesley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. F.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weymouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whitefield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilberforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilkinson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Dick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woodbury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordsworth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycliffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolaus von</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinzendorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwingli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiesinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yang-ming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin-Sparks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. E. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berry's</t>
   </si>
 </sst>
 </file>
@@ -2320,8 +2320,8 @@
   </sheetPr>
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C345" activeCellId="0" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2858,9 +2858,6 @@
       <c r="D50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3077,78 +3074,69 @@
       <c r="D72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D79" s="7"/>
     </row>
@@ -3157,17 +3145,17 @@
         <v>20</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D81" s="7"/>
     </row>
@@ -3176,41 +3164,41 @@
         <v>46</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C83" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -3219,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" s="7"/>
     </row>
@@ -3231,31 +3219,31 @@
         <v>26</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D89" s="7"/>
     </row>
@@ -3264,93 +3252,86 @@
         <v>20</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
       <c r="B95" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D98" s="7"/>
     </row>
@@ -3359,45 +3340,21 @@
         <v>39</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -3406,56 +3363,47 @@
         <v>26</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3471,157 +3419,151 @@
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D123" s="7"/>
     </row>
@@ -3630,86 +3572,86 @@
         <v>81</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>7</v>
@@ -3718,24 +3660,24 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D136" s="7"/>
     </row>
@@ -3744,82 +3686,82 @@
         <v>46</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D146" s="7"/>
     </row>
@@ -3828,7 +3770,7 @@
         <v>81</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D147" s="7"/>
     </row>
@@ -3837,59 +3779,59 @@
         <v>13</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="5"/>
       <c r="B151" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D154" s="7"/>
     </row>
@@ -3898,34 +3840,34 @@
         <v>46</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D158" s="7"/>
     </row>
@@ -3934,369 +3876,369 @@
         <v>20</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
       <c r="B183" s="5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="5"/>
       <c r="B190" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4"/>
       <c r="B191" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4"/>
       <c r="B192" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4"/>
       <c r="B193" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4"/>
       <c r="B194" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4"/>
       <c r="B197" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="4"/>
       <c r="B198" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4"/>
       <c r="B199" s="6" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4"/>
       <c r="B200" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4"/>
       <c r="B202" s="5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D203" s="7"/>
     </row>
@@ -4305,7 +4247,7 @@
         <v>26</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D204" s="7"/>
     </row>
@@ -4314,68 +4256,68 @@
         <v>46</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4"/>
       <c r="B212" s="10" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D212" s="7"/>
     </row>
@@ -4384,59 +4326,59 @@
         <v>46</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4"/>
       <c r="B217" s="5" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D219" s="7"/>
     </row>
@@ -4445,16 +4387,16 @@
         <v>50</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D221" s="7"/>
     </row>
@@ -4463,83 +4405,83 @@
         <v>23</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
       <c r="B226" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="14" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>23</v>
@@ -4551,93 +4493,93 @@
         <v>13</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4"/>
       <c r="B238" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="4"/>
       <c r="B241" s="5" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D242" s="7"/>
     </row>
@@ -4646,70 +4588,70 @@
         <v>46</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D250" s="7"/>
     </row>
@@ -4718,7 +4660,7 @@
         <v>13</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D251" s="7"/>
     </row>
@@ -4727,25 +4669,25 @@
         <v>26</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D254" s="7"/>
     </row>
@@ -4754,25 +4696,25 @@
         <v>20</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D257" s="7"/>
     </row>
@@ -4781,41 +4723,41 @@
         <v>46</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="5"/>
       <c r="B262" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D262" s="7"/>
     </row>
@@ -4824,7 +4766,7 @@
         <v>26</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D263" s="7"/>
     </row>
@@ -4833,95 +4775,95 @@
         <v>46</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="5"/>
       <c r="B269" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D274" s="7"/>
     </row>
@@ -4930,50 +4872,50 @@
         <v>26</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="4"/>
       <c r="B277" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D280" s="7"/>
     </row>
@@ -4982,155 +4924,155 @@
         <v>15</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="4"/>
       <c r="B289" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="4"/>
       <c r="B290" s="5" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="4"/>
       <c r="B291" s="5" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="4"/>
       <c r="B292" s="5" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="4"/>
       <c r="B293" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="4"/>
       <c r="B295" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="4"/>
       <c r="B299" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D299" s="7"/>
     </row>
@@ -5139,384 +5081,384 @@
         <v>79</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="8" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="4"/>
       <c r="B314" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="4"/>
       <c r="B327" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="4"/>
       <c r="B335" s="15" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="11" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="4"/>
       <c r="B341" s="6" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="4"/>
       <c r="B342" s="6" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D343" s="7"/>
     </row>
@@ -5525,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D344" s="7"/>
     </row>
@@ -5534,109 +5476,109 @@
         <v>20</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="4"/>
       <c r="B354" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="4"/>
       <c r="B355" s="5" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="4"/>
       <c r="B356" s="5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>26</v>
@@ -5646,52 +5588,52 @@
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="5"/>
       <c r="B358" s="5" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="8" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="D360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D363" s="7"/>
     </row>
@@ -5700,43 +5642,43 @@
         <v>46</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D368" s="7"/>
     </row>
@@ -5745,115 +5687,115 @@
         <v>13</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="5" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D381" s="7"/>
     </row>
@@ -5862,79 +5804,79 @@
         <v>46</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="5" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="8" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="5" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="D389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="D390" s="7"/>
     </row>
@@ -5943,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D391" s="7"/>
     </row>
@@ -5952,7 +5894,7 @@
         <v>56</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D392" s="7"/>
     </row>
@@ -5961,52 +5903,52 @@
         <v>20</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="5" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="5" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="17"/>
@@ -6035,22 +5977,22 @@
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D400" s="7"/>
     </row>
@@ -6059,22 +6001,22 @@
         <v>79</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D402" s="7"/>
     </row>
@@ -6086,38 +6028,80 @@
         <v>78</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="4"/>
-      <c r="B404" s="4"/>
+      <c r="A404" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="D404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="4"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="D405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A406" s="4"/>
-      <c r="B406" s="4"/>
+      <c r="A406" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="D406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="4"/>
-      <c r="B407" s="4"/>
-      <c r="D407" s="7"/>
+      <c r="A407" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="4"/>
-      <c r="B408" s="4"/>
+      <c r="A408" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="D408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="4"/>
-      <c r="B409" s="4"/>
+      <c r="A409" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="D409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8956,42 +8940,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9004,18 +8988,18 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
